--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_melan_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_melan_1_1.xlsx
@@ -2336,7 +2336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">당연한 얘기지만, 그것들은 제가 보낸 시간들이니까.
+    <t xml:space="preserve">당연한 얘기지만, 그것들은 내가 보낸 시간들이니까.
 </t>
   </si>
   <si>
